--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27B162CE-8D5F-4EF5-B0E9-EDADAFB7B122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC513E-CC5D-49DC-B12B-27E7976FDA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="14295" yWindow="360" windowWidth="14610" windowHeight="15240" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,10 +147,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -463,7 +470,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,12 +563,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -569,12 +579,14 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -582,6 +594,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC513E-CC5D-49DC-B12B-27E7976FDA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63815581-C581-4298-92A7-24C2A9388514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="360" windowWidth="14610" windowHeight="15240" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="28680" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Description</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Function parser</t>
   </si>
   <si>
-    <t>Physics</t>
-  </si>
-  <si>
     <t>Course input-output module</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Menu UI / course designer</t>
   </si>
   <si>
-    <t>Make it a game</t>
-  </si>
-  <si>
     <t>Aaron</t>
   </si>
   <si>
@@ -93,6 +87,27 @@
   </si>
   <si>
     <t>Function parser + physics</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Make it a game / merge / bug fixing</t>
+  </si>
+  <si>
+    <t>Game rules (scoring, keeping track of shots and hitting the water)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics </t>
+  </si>
+  <si>
+    <t>In-game UI for shooting</t>
+  </si>
+  <si>
+    <t>Handle being out of bounds</t>
+  </si>
+  <si>
+    <t>UI and terrain improvements (if time allows)</t>
   </si>
 </sst>
 </file>
@@ -467,44 +482,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -512,16 +527,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -546,13 +561,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -567,7 +582,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -575,7 +590,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -583,14 +598,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -598,17 +613,35 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63815581-C581-4298-92A7-24C2A9388514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A1B72-80C4-4070-B040-A56339B65114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -485,7 +486,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +603,8 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -610,6 +613,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A1B72-80C4-4070-B040-A56339B65114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DA0981-1C93-4C35-8002-E6E7506E2A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,32 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Game rules</t>
-  </si>
-  <si>
-    <t>In-game UI</t>
-  </si>
-  <si>
-    <t>Function parser</t>
-  </si>
-  <si>
-    <t>Course input-output module</t>
-  </si>
-  <si>
-    <t>2 Game modes</t>
-  </si>
-  <si>
     <t>René</t>
   </si>
   <si>
-    <t>Menu UI / course designer</t>
-  </si>
-  <si>
     <t>Aaron</t>
   </si>
   <si>
@@ -75,47 +56,125 @@
     <t>Huan</t>
   </si>
   <si>
-    <t>3D model for ball and pole (in-engine)</t>
-  </si>
-  <si>
-    <t>3D models for ball and pole  (in-engine)</t>
-  </si>
-  <si>
-    <t>Menu UI / Course desginer</t>
-  </si>
-  <si>
-    <t>2 Game modes + Course input-output module + help on physics</t>
-  </si>
-  <si>
-    <t>Function parser + physics</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Make it a game / merge / bug fixing</t>
-  </si>
-  <si>
-    <t>Game rules (scoring, keeping track of shots and hitting the water)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physics </t>
-  </si>
-  <si>
-    <t>In-game UI for shooting</t>
-  </si>
-  <si>
-    <t>Handle being out of bounds</t>
-  </si>
-  <si>
-    <t>UI and terrain improvements (if time allows)</t>
+    <t>Project structure</t>
+  </si>
+  <si>
+    <t>Connection UI and backend</t>
+  </si>
+  <si>
+    <t>Redo UI</t>
+  </si>
+  <si>
+    <t>Second order Verlet solver</t>
+  </si>
+  <si>
+    <t>Classical 4th order Runge Kutta solver</t>
+  </si>
+  <si>
+    <t>3D UI improvements (ball reset preview, shot direction indicator)</t>
+  </si>
+  <si>
+    <t>Music/sound effects</t>
+  </si>
+  <si>
+    <t>March 23-29</t>
+  </si>
+  <si>
+    <t>March 30 April 5</t>
+  </si>
+  <si>
+    <t>April 6-12</t>
+  </si>
+  <si>
+    <t>April 13-19</t>
+  </si>
+  <si>
+    <t>April 20-26</t>
+  </si>
+  <si>
+    <t>April 27 - May 3</t>
+  </si>
+  <si>
+    <t>May 4-10</t>
+  </si>
+  <si>
+    <t>May 11-17</t>
+  </si>
+  <si>
+    <t>May 18/19</t>
+  </si>
+  <si>
+    <t>Create new 3D engine</t>
+  </si>
+  <si>
+    <t>Create new 2D engine</t>
+  </si>
+  <si>
+    <t>in class</t>
+  </si>
+  <si>
+    <t>Multiplayer (turn based or switch after goal?)</t>
+  </si>
+  <si>
+    <t>Improved terrain and water</t>
+  </si>
+  <si>
+    <t>Basic bot research</t>
+  </si>
+  <si>
+    <t>Basic version of basic bot</t>
+  </si>
+  <si>
+    <t>Finished basic bot</t>
+  </si>
+  <si>
+    <t>Consider flying balls (phase 3 prep)</t>
+  </si>
+  <si>
+    <t>Research advanced bot (phase3)</t>
+  </si>
+  <si>
+    <t>Get started with advanced bot (phase3)</t>
+  </si>
+  <si>
+    <t>Bouncing against trees</t>
+  </si>
+  <si>
+    <t>Have a playable game (for humans)</t>
+  </si>
+  <si>
+    <t>Course designer basics (phase 3)</t>
+  </si>
+  <si>
+    <t>Course designer finished, including saving/loading (phase 3)</t>
+  </si>
+  <si>
+    <t>Support Ivan with the bot (research and implementation for basic and advanced bot)</t>
+  </si>
+  <si>
+    <t>Create 3D engine, create basis of 2D engine, improve project structure, expand 3D UI, 3D course designer, course desginer save/load system, improved terrain and water rendering</t>
+  </si>
+  <si>
+    <t>Music and sound effect, 'mutliplayer'</t>
+  </si>
+  <si>
+    <t>Second order Verlet solver, classic 4th order Runge Kutta solver, bouncing against trees, consider flying balls</t>
+  </si>
+  <si>
+    <t>Improve project structure, ensure that we have a playable game, bot research and development (basic and advanced)</t>
+  </si>
+  <si>
+    <t>Expand 2D engine, redo 2D UI,  connection UI and backend</t>
+  </si>
+  <si>
+    <t>Start with report (mainly structure)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +185,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,12 +212,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,18 +224,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -483,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,160 +581,376 @@
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>43906</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43907</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43908</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="B6:Q6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DA0981-1C93-4C35-8002-E6E7506E2A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849956D0-4848-4310-9DFE-6F9C46B02335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Matthijs</t>
   </si>
   <si>
-    <t>Huan</t>
-  </si>
-  <si>
     <t>Project structure</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Start with report (mainly structure)</t>
+  </si>
+  <si>
+    <t>Haoran</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -698,10 +698,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -742,36 +742,36 @@
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -799,65 +799,65 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>7</v>
+      </c>
       <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -865,62 +865,62 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -928,14 +928,15 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -952,5 +953,8 @@
     <mergeCell ref="B6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D8:F8" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849956D0-4848-4310-9DFE-6F9C46B02335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2082FAF-2DC5-4CA5-95C4-B4756A041D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Description</t>
   </si>
@@ -41,9 +41,6 @@
     <t>René</t>
   </si>
   <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>Ivan</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>in class</t>
   </si>
   <si>
-    <t>Multiplayer (turn based or switch after goal?)</t>
-  </si>
-  <si>
     <t>Improved terrain and water</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Get started with advanced bot (phase3)</t>
   </si>
   <si>
-    <t>Bouncing against trees</t>
-  </si>
-  <si>
     <t>Have a playable game (for humans)</t>
   </si>
   <si>
@@ -146,28 +137,97 @@
     <t>Course designer finished, including saving/loading (phase 3)</t>
   </si>
   <si>
-    <t>Support Ivan with the bot (research and implementation for basic and advanced bot)</t>
-  </si>
-  <si>
-    <t>Create 3D engine, create basis of 2D engine, improve project structure, expand 3D UI, 3D course designer, course desginer save/load system, improved terrain and water rendering</t>
-  </si>
-  <si>
-    <t>Music and sound effect, 'mutliplayer'</t>
-  </si>
-  <si>
-    <t>Second order Verlet solver, classic 4th order Runge Kutta solver, bouncing against trees, consider flying balls</t>
-  </si>
-  <si>
-    <t>Improve project structure, ensure that we have a playable game, bot research and development (basic and advanced)</t>
-  </si>
-  <si>
-    <t>Expand 2D engine, redo 2D UI,  connection UI and backend</t>
-  </si>
-  <si>
     <t>Start with report (mainly structure)</t>
   </si>
   <si>
     <t>Haoran</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>René and Jean</t>
+  </si>
+  <si>
+    <t>René and Ivan</t>
+  </si>
+  <si>
+    <t>René, Jean and Ivan</t>
+  </si>
+  <si>
+    <t>Bouncing against trees (phase 3)</t>
+  </si>
+  <si>
+    <t>Aaron and Ivan</t>
+  </si>
+  <si>
+    <t>Jean, Matthijs and René</t>
+  </si>
+  <si>
+    <t>Extended description</t>
+  </si>
+  <si>
+    <t>Create a new 3D engine using lwjgl</t>
+  </si>
+  <si>
+    <t>Add 2D options to the engine for UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that the project structure is clear and flexible </t>
+  </si>
+  <si>
+    <t>Create an improved version of the phase 1 UI in the new engine</t>
+  </si>
+  <si>
+    <t>Make sure that the back- and frontend can properly communicate</t>
+  </si>
+  <si>
+    <t>Have a working game where you can at least shoot the ball and score</t>
+  </si>
+  <si>
+    <t>Implement the second order Verlet solver for physics</t>
+  </si>
+  <si>
+    <t>Implement the classical 4th order Runge kutta solver for physics</t>
+  </si>
+  <si>
+    <t>Add the physics for bouncing against trees, including hit detection</t>
+  </si>
+  <si>
+    <t>Figure out how a bot should work to meet the requirements for phase 2</t>
+  </si>
+  <si>
+    <t>Come up with an improved bot by doing research</t>
+  </si>
+  <si>
+    <t>Start the implementation of this improved bot</t>
+  </si>
+  <si>
+    <t>Enable the user to customize the terrain by adding sand and trees</t>
+  </si>
+  <si>
+    <t>Add a save and load option to the course designer</t>
+  </si>
+  <si>
+    <t>Improve the visuals for the terrain and water</t>
+  </si>
+  <si>
+    <t>Add 3D UI for resetting the ball and indicating in which direction you're shooting</t>
+  </si>
+  <si>
+    <t>Add music that plays while playing the game and add sound effects to actions like shooting and scoring</t>
+  </si>
+  <si>
+    <t>Create a first version of the bot for phase 2 that can already meet the requirements</t>
+  </si>
+  <si>
+    <t>Improve the bot further and fix any problems that the bot may have</t>
+  </si>
+  <si>
+    <t>Add the physics for flying balls and make sure the rest of the game still works when this is used</t>
+  </si>
+  <si>
+    <t>Prepare an outline for the report in LaTeX and learn LaTeX if needed</t>
   </si>
 </sst>
 </file>
@@ -245,7 +305,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -254,6 +314,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
@@ -570,391 +636,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="73.7109375" customWidth="1"/>
+    <col min="17" max="17" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="M1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="M2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="M3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="M6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="M7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="M8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="M9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="M10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="M11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="M12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="M13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="M14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="M15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B6:Q6"/>
+  <mergeCells count="21">
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D8:F8" twoDigitTextYear="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2082FAF-2DC5-4CA5-95C4-B4756A041D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F214DF4-6911-4FDD-9A23-3B0366B4C33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="24990" yWindow="630" windowWidth="7500" windowHeight="6000" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +257,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +280,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,12 +312,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -314,14 +327,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +678,7 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -685,36 +703,15 @@
         <v>20</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
@@ -727,7 +724,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -735,11 +732,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -752,12 +749,13 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="13"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
@@ -770,6 +768,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="13"/>
       <c r="L5" s="5"/>
       <c r="M5" s="8" t="s">
         <v>47</v>
@@ -824,11 +823,11 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -907,11 +906,11 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -976,108 +975,136 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="13"/>
       <c r="M18" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="M19" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="M20" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="M21" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
+    <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="M22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="M24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
+  <mergeCells count="20">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F214DF4-6911-4FDD-9A23-3B0366B4C33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9744026D-A79A-4A31-B235-617A2BBCC61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24990" yWindow="630" windowWidth="7500" windowHeight="6000" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>Description</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Prepare an outline for the report in LaTeX and learn LaTeX if needed</t>
+  </si>
+  <si>
+    <t>Additional engine improvements (shadows, improved AA)</t>
+  </si>
+  <si>
+    <t>Implement some additional and optional engine improvements</t>
   </si>
 </sst>
 </file>
@@ -318,7 +324,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -331,12 +337,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -654,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +686,7 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -703,11 +711,11 @@
         <v>20</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -724,7 +732,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -732,11 +740,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -749,13 +757,13 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
@@ -768,13 +776,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
@@ -788,11 +796,11 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
@@ -806,11 +814,11 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
@@ -841,11 +849,11 @@
         <v>23</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -858,11 +866,11 @@
       <c r="D10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -873,11 +881,11 @@
         <v>41</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -890,11 +898,11 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -922,11 +930,11 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -937,11 +945,11 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -952,11 +960,11 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -967,27 +975,28 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="13"/>
-      <c r="M18" s="8" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="9"/>
+      <c r="M18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1000,11 +1009,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1016,11 +1025,11 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1032,63 +1041,92 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="M24" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="M22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
     </row>
+    <row r="25" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="M27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M26:O26"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M5:O5"/>
@@ -1101,10 +1139,6 @@
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9744026D-A79A-4A31-B235-617A2BBCC61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A5FBB-EB04-4814-A454-AD73170E69A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Matthijs</t>
   </si>
   <si>
-    <t>Project structure</t>
-  </si>
-  <si>
     <t>Connection UI and backend</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Create new 3D engine</t>
   </si>
   <si>
-    <t>Create new 2D engine</t>
-  </si>
-  <si>
     <t>in class</t>
   </si>
   <si>
@@ -146,18 +140,9 @@
     <t>Who?</t>
   </si>
   <si>
-    <t>René and Jean</t>
-  </si>
-  <si>
-    <t>René and Ivan</t>
-  </si>
-  <si>
     <t>René, Jean and Ivan</t>
   </si>
   <si>
-    <t>Bouncing against trees (phase 3)</t>
-  </si>
-  <si>
     <t>Aaron and Ivan</t>
   </si>
   <si>
@@ -170,12 +155,6 @@
     <t>Create a new 3D engine using lwjgl</t>
   </si>
   <si>
-    <t>Add 2D options to the engine for UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure that the project structure is clear and flexible </t>
-  </si>
-  <si>
     <t>Create an improved version of the phase 1 UI in the new engine</t>
   </si>
   <si>
@@ -234,13 +213,67 @@
   </si>
   <si>
     <t>Implement some additional and optional engine improvements</t>
+  </si>
+  <si>
+    <t>Create new 2D engine basis</t>
+  </si>
+  <si>
+    <t>Expand 2D engine with buttons, textfields and a file explorer</t>
+  </si>
+  <si>
+    <t>Add the option to add 2D elements to the UI</t>
+  </si>
+  <si>
+    <t>PROJECT STRUCTURE AND PHASE 1 FIXES</t>
+  </si>
+  <si>
+    <t>GRAPHICS ENGINE</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>REPORT</t>
+  </si>
+  <si>
+    <t>Bouncing against trees (phase 3 prep)</t>
+  </si>
+  <si>
+    <t>PRESENTATION</t>
+  </si>
+  <si>
+    <t>Create the presentation</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Improve the graphics engine structure</t>
+  </si>
+  <si>
+    <t>Improve the physics engine structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">René </t>
+  </si>
+  <si>
+    <t>Make sure that the project structure is clear and flexible, focusing on the graphicsc engine's structure</t>
+  </si>
+  <si>
+    <t>Make sure that the project structure is clear and flexible, focusing on the physics engine's structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +303,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +338,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -318,13 +370,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -345,11 +398,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,41 +742,41 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="M1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -723,422 +784,505 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="12"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="12"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="12"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="F6" s="12"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>35</v>
+      </c>
       <c r="E7" s="2"/>
+      <c r="F7" s="20"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="M7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="M8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="M9" s="13" t="s">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="M13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="M10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="M11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="M12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="M13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="M14" s="13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="M15" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="M16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="M17" s="13" t="s">
+      <c r="H17" s="9"/>
+      <c r="M17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="M18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="20"/>
+      <c r="M21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="M22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="M23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="15"/>
+      <c r="M24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="M27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="M30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="M31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="M32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="M33" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="15"/>
+      <c r="M34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="15"/>
+      <c r="M37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="9"/>
-      <c r="M18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="M19" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="M22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="M27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="M40" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M16:O16"/>
+  <mergeCells count="12">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M34:O34"/>
     <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M6:O6"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A5FBB-EB04-4814-A454-AD73170E69A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7E287-74AD-4DA4-AD31-395B494AA17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Make sure that the project structure is clear and flexible, focusing on the physics engine's structure</t>
+  </si>
+  <si>
+    <t>Working inputOutputModule</t>
+  </si>
+  <si>
+    <t>Have to option to save and load the game information (start location, terrain info, etc)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -398,13 +404,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -723,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,11 +779,11 @@
         <v>19</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -785,7 +792,7 @@
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -798,11 +805,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
@@ -814,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="12"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
@@ -834,11 +841,11 @@
       <c r="E6" s="2"/>
       <c r="F6" s="12"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
@@ -850,13 +857,13 @@
         <v>35</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="18"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
@@ -871,53 +878,43 @@
       <c r="E8" s="2"/>
       <c r="F8" s="12"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="M9" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -926,264 +923,271 @@
       <c r="K12" s="1"/>
       <c r="L12" s="14"/>
       <c r="M12" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="M13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="M14" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="M15" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="M16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="9"/>
-      <c r="M17" s="16" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="9"/>
+      <c r="M18" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="M18" s="8" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="M19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="20"/>
-      <c r="M21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="M22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="18"/>
+      <c r="M22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="M23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="M23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="15"/>
-      <c r="M24" s="16" t="s">
+      <c r="D24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="M24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="15"/>
+      <c r="M25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="M27" s="16" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="M28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="M30" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="M31" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="14"/>
     </row>
-    <row r="32" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="M32" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="14"/>
     </row>
-    <row r="33" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>36</v>
@@ -1191,96 +1195,112 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="M33" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="M34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="15"/>
-      <c r="M34" s="16" t="s">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="15"/>
+      <c r="M35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="15"/>
-      <c r="M37" s="16" t="s">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="15"/>
+      <c r="M38" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-    </row>
-    <row r="39" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="40" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="M40" s="15" t="s">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="M41" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+    <row r="45" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M18:O18"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M27:O27"/>
     <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M17:O17"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
   </mergeCells>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C7E287-74AD-4DA4-AD31-395B494AA17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B263F5AA-5596-4C34-A59E-85370DD13EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>Description</t>
   </si>
@@ -273,13 +273,25 @@
   </si>
   <si>
     <t>Have to option to save and load the game information (start location, terrain info, etc)</t>
+  </si>
+  <si>
+    <t>Planned duration</t>
+  </si>
+  <si>
+    <t>Finished earlier than planned</t>
+  </si>
+  <si>
+    <t>Possible extension</t>
+  </si>
+  <si>
+    <t>Critically behind on schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +335,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +371,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,15 +401,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -407,16 +449,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="grey" xfId="5" xr:uid="{0F5ECB86-35F2-4656-B315-5B9D66EE148C}"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -730,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,11 +823,11 @@
         <v>19</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -805,11 +849,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
@@ -841,11 +885,11 @@
       <c r="E6" s="2"/>
       <c r="F6" s="12"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
@@ -859,11 +903,11 @@
       <c r="E7" s="2"/>
       <c r="F7" s="18"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
@@ -878,11 +922,11 @@
       <c r="E8" s="2"/>
       <c r="F8" s="12"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
@@ -972,6 +1016,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="22"/>
       <c r="M15" s="13" t="s">
         <v>49</v>
       </c>
@@ -986,6 +1031,8 @@
         <v>1</v>
       </c>
       <c r="E16" s="2"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="M16" s="13" t="s">
         <v>50</v>
       </c>
@@ -1025,11 +1072,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="9"/>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -1078,11 +1125,11 @@
         <v>21</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1095,11 +1142,11 @@
       <c r="D24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1112,11 +1159,11 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="15"/>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K26" s="15"/>
@@ -1139,11 +1186,11 @@
       <c r="F28" s="2"/>
       <c r="G28" s="15"/>
       <c r="K28" s="15"/>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K29" s="15"/>
@@ -1227,11 +1274,11 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="15"/>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K36" s="15"/>
@@ -1252,11 +1299,11 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="15"/>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="40" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
@@ -1282,6 +1329,9 @@
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -1289,13 +1339,23 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M18:O18"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M6:O6"/>
@@ -1303,6 +1363,11 @@
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B263F5AA-5596-4C34-A59E-85370DD13EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B84271-D822-469C-A3FD-8B524B2EA166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>Description</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Create new 3D engine</t>
   </si>
   <si>
-    <t>in class</t>
-  </si>
-  <si>
-    <t>Improved terrain and water</t>
-  </si>
-  <si>
     <t>Basic bot research</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>Create an improved version of the phase 1 UI in the new engine</t>
   </si>
   <si>
-    <t>Make sure that the back- and frontend can properly communicate</t>
-  </si>
-  <si>
     <t>Have a working game where you can at least shoot the ball and score</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>Add a save and load option to the course designer</t>
   </si>
   <si>
-    <t>Improve the visuals for the terrain and water</t>
-  </si>
-  <si>
     <t>Add 3D UI for resetting the ball and indicating in which direction you're shooting</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
     <t>Make sure that the project structure is clear and flexible, focusing on the physics engine's structure</t>
   </si>
   <si>
-    <t>Working inputOutputModule</t>
-  </si>
-  <si>
     <t>Have to option to save and load the game information (start location, terrain info, etc)</t>
   </si>
   <si>
@@ -285,6 +270,174 @@
   </si>
   <si>
     <t>Critically behind on schedule</t>
+  </si>
+  <si>
+    <t>Working 3D engine, basic 2D UI options (text and images), 3D physics, the ability to shoot the ball and score (possibly with UI, but not necessarily), basic course designer (you can add and remove trees)</t>
+  </si>
+  <si>
+    <t>Editor build</t>
+  </si>
+  <si>
+    <t>Fully functional course editor, including adding and removing both trees and sand. It also has the ability to save and load a terrain.</t>
+  </si>
+  <si>
+    <t>Basic bot</t>
+  </si>
+  <si>
+    <t>A basic version of the bot that can already win the game with a simple course</t>
+  </si>
+  <si>
+    <t>Basic working game</t>
+  </si>
+  <si>
+    <t>Improved physics engine</t>
+  </si>
+  <si>
+    <t>The new physics solvers are implemented and working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-fledged bot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The final both for this phase is working as intended </t>
+  </si>
+  <si>
+    <t>Main menu</t>
+  </si>
+  <si>
+    <t>Shooting the ball</t>
+  </si>
+  <si>
+    <t>Resetting after hitting water</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Redo main menu</t>
+  </si>
+  <si>
+    <t>Redo shooting the ball UI</t>
+  </si>
+  <si>
+    <t>Redo resetting after hitting the water UI</t>
+  </si>
+  <si>
+    <t>Create editor UI (loading and saving options as well as key bindings explained)</t>
+  </si>
+  <si>
+    <t>Redoing inputOutputModule</t>
+  </si>
+  <si>
+    <t>René and Ivan</t>
+  </si>
+  <si>
+    <t>Make sure that the back- and frontend can properly communicate (if I click this button, run this code)</t>
+  </si>
+  <si>
+    <t>Show a triangle</t>
+  </si>
+  <si>
+    <t>Add lighting</t>
+  </si>
+  <si>
+    <t>Import 3D models</t>
+  </si>
+  <si>
+    <t>Allow 3D shapes</t>
+  </si>
+  <si>
+    <t>Camera system in 3D</t>
+  </si>
+  <si>
+    <t>Basic terrain system (flat ground)</t>
+  </si>
+  <si>
+    <t>Terrain with height</t>
+  </si>
+  <si>
+    <t>Multiple textures for the terrain</t>
+  </si>
+  <si>
+    <t>Skybox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cursor to point on terrain </t>
+  </si>
+  <si>
+    <t>Be able to show a colored triangle in 2D</t>
+  </si>
+  <si>
+    <t>Add per pixel lighting and specular lighting</t>
+  </si>
+  <si>
+    <t>Add a camera in 3D that can be moved around</t>
+  </si>
+  <si>
+    <t>Have the ability to create models in 3D by code</t>
+  </si>
+  <si>
+    <t>Allow importing 3D objects from Blender</t>
+  </si>
+  <si>
+    <t>Create a system to deal with terrain rendering (specialized code, separate from other 3D objects)</t>
+  </si>
+  <si>
+    <t>Add height to the terrain</t>
+  </si>
+  <si>
+    <t>Allow for multiple textures to be applied to the terrain (grass and sand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a skybox </t>
+  </si>
+  <si>
+    <t>Convert a mouse click onto coordinates on the terrain</t>
+  </si>
+  <si>
+    <t>Spawn objects on clicked location</t>
+  </si>
+  <si>
+    <t>Add an object with the position being the point that was clicked on the terrain</t>
+  </si>
+  <si>
+    <t>Water system</t>
+  </si>
+  <si>
+    <t>Add water to the game with reflection, fresnel effect and 'movement'</t>
+  </si>
+  <si>
+    <t>Ball reset preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot direction indicator </t>
+  </si>
+  <si>
+    <t>Add a vector pointing to the shot direction from ball itself</t>
+  </si>
+  <si>
+    <t>Show where the ball would end up after resetting it when you hit the water</t>
+  </si>
+  <si>
+    <t>Hole in one if possible</t>
+  </si>
+  <si>
+    <t>Handle more than one shot to win</t>
+  </si>
+  <si>
+    <t>Improve heuristics</t>
+  </si>
+  <si>
+    <t>If you can score in one shot, do so</t>
+  </si>
+  <si>
+    <t>If you need multiple shots to score than the bot has to be able to do this</t>
+  </si>
+  <si>
+    <t>Improve heuristics to optimize the bot's behavior and performance</t>
+  </si>
+  <si>
+    <t>MAJOR BUILDS / MILESTONES</t>
   </si>
 </sst>
 </file>
@@ -425,7 +578,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -439,9 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,6 +606,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -774,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>11</v>
@@ -823,11 +983,11 @@
         <v>19</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="M1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -835,539 +995,1015 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="3" spans="1:17" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="M4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="M5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="M6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="24"/>
+      <c r="M7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="M8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="12"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="18"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="M9" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:17" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="M14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>1</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="22"/>
-      <c r="M15" s="13" t="s">
+      <c r="F15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="11"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="11"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="11"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="11"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="24"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="24"/>
+      <c r="L21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="24"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="20"/>
+      <c r="M29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+    </row>
+    <row r="33" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+    </row>
+    <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+    </row>
+    <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+    </row>
+    <row r="37" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+    </row>
+    <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+    </row>
+    <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+    </row>
+    <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="M42" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+    </row>
+    <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="M43" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="M44" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="11"/>
+      <c r="M45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="M46" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="M47" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="18"/>
+    </row>
+    <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="M48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="19"/>
+      <c r="M49" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="M52" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="19"/>
+      <c r="M53" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="M54" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="13"/>
+      <c r="M55" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K56" s="13"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+    </row>
+    <row r="57" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="12"/>
+    </row>
+    <row r="58" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="M58" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="M16" s="13" t="s">
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="12"/>
+    </row>
+    <row r="59" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="12"/>
+    </row>
+    <row r="60" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="M61" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="M62" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="9"/>
-      <c r="M18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="M19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="21" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="18"/>
-      <c r="M22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="M23" s="19" t="s">
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+    </row>
+    <row r="63" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="M63" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+    </row>
+    <row r="64" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="M64" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+    </row>
+    <row r="65" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="M65" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="M66" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="M67" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="M24" s="19" t="s">
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="13"/>
+      <c r="M68" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="15"/>
-      <c r="M25" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K69" s="13"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+    </row>
+    <row r="70" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" s="13"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="13"/>
+      <c r="M71" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+    </row>
+    <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="M28" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+    </row>
+    <row r="74" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="M31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="M32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="M33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14"/>
-    </row>
-    <row r="34" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="M34" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="15"/>
-      <c r="M35" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
+      <c r="B74" t="s">
         <v>68</v>
       </c>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="15"/>
-      <c r="M38" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-    </row>
-    <row r="40" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="M41" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>82</v>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+    </row>
+    <row r="75" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="5">
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
